--- a/docs/8_데이터분할보고서/수집데이터분할목록.xlsx
+++ b/docs/8_데이터분할보고서/수집데이터분할목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OnAD_project\docs\8_데이터분할보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88360716-60AF-4338-B3D3-60E7296B5E4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5651B8-FB39-48E8-9F0C-E1E276198CA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{9754A107-B31A-4CC5-B64E-F460AB7A9DDA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="404">
   <si>
     <t>데이터 분할 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>스트리밍 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트리밍 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1346,6 +1350,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>For 크리에이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>컨텐츠 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1354,30 +1362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For 크리에이터/트위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감성 변화 추세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고빈도 단어 워드클라우드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편집점 시간점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>획득 수입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편집점 시간대 URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 수집 DATA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1387,6 +1371,188 @@
   </si>
   <si>
     <t>REPORT 제공 DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트리머 로고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트리머 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트리머 닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대별 시청자 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대별 채팅 발생 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초,5초..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감성 추세선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정 편집 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정 편집점 시간대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편집점 시간의 워드클라우드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편집점 시간의 감성 지표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대별 광고 금액 그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대별 구매 회사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30분단위?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간대별 광고 정산 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트위치만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For 마케터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 시간에서의 추정 노출량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매안한 시간대의 추정 노출량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매한 시간대만
+따로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비슷한 구독자수 or 평균시청자
+수를 가진 타 스트리머 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 스트리머의 구독자수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 스트리머의 평균 시청자수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 스트리머의 평균 시간당 광고단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11T15, Y2Y3Y8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3, Y30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T9, Y30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T23, Y37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드(추정조합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T22, Y37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3T13T14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 회사 담당자 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 회사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1434,7 +1600,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,8 +1643,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1566,15 +1738,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1668,6 +1831,19 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1861,6 +2037,19 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1906,13 +2095,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1922,10 +2137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
@@ -1934,30 +2146,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2003,6 +2206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2015,15 +2221,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2036,34 +2242,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2072,15 +2275,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2093,14 +2296,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2425,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81581BC9-EACE-40A1-B7E5-B86D8BF3505A}">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2436,177 +2654,179 @@
     <col min="1" max="1" width="28.8984375" customWidth="1"/>
     <col min="3" max="3" width="10.8984375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="7" max="7" width="20.8984375" customWidth="1"/>
-    <col min="9" max="9" width="34.8984375" customWidth="1"/>
-    <col min="12" max="12" width="36" customWidth="1"/>
-    <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="14" max="14" width="19.09765625" customWidth="1"/>
-    <col min="17" max="17" width="27.5" customWidth="1"/>
-    <col min="18" max="18" width="10.59765625" customWidth="1"/>
-    <col min="19" max="19" width="10.09765625" customWidth="1"/>
-    <col min="20" max="20" width="11.19921875" customWidth="1"/>
-    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="34.8984375" customWidth="1"/>
+    <col min="10" max="10" width="36" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" customWidth="1"/>
+    <col min="12" max="12" width="19.09765625" customWidth="1"/>
+    <col min="13" max="13" width="30.19921875" customWidth="1"/>
+    <col min="14" max="14" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" thickBot="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:25" ht="18" thickBot="1">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="56" t="s">
-        <v>360</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="I2" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="Q2" s="57" t="s">
-        <v>362</v>
-      </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="59"/>
-    </row>
-    <row r="3" spans="1:29" ht="18" thickBot="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="55"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="62"/>
-    </row>
-    <row r="4" spans="1:29" ht="18" thickBot="1">
-      <c r="A4" s="5" t="s">
+      <c r="Y1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="G2" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="M2" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
+    </row>
+    <row r="3" spans="1:25" ht="18" thickBot="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+    </row>
+    <row r="4" spans="1:25" ht="18" thickBot="1">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="E4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="H4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="I4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="J4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q4" s="11" t="s">
+      <c r="K4" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="N4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="O4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="P4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="18" thickBot="1">
-      <c r="A5" s="25" t="s">
+      <c r="Q4" s="60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18" thickBot="1">
+      <c r="A5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="I5" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="15"/>
-      <c r="Q5" s="14" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="G5" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="M5" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="15"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="15"/>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="16" t="s">
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
@@ -2616,30 +2836,32 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="E7" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="15"/>
-      <c r="Q7" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="15"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="16" t="s">
+      <c r="H7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="11"/>
+      <c r="M7" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
@@ -2649,38 +2871,34 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="E8" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="16" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
@@ -2690,38 +2908,34 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="E9" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="16" t="s">
+      <c r="H9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
@@ -2731,98 +2945,100 @@
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="E10" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="15" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="18" thickBot="1">
+      <c r="A11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q11" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="Q10" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="18" thickBot="1">
-      <c r="A11" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="30" t="s">
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="I12" s="16" t="s">
-        <v>278</v>
-      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="G12" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="16" t="s">
+      <c r="K12" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2"/>
@@ -2832,36 +3048,32 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
+      <c r="E13" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="M13" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="16" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2"/>
@@ -2871,30 +3083,34 @@
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>281</v>
-      </c>
+      <c r="E14" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="16" t="s">
+      <c r="K14" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2"/>
@@ -2904,119 +3120,137 @@
       <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>282</v>
-      </c>
+      <c r="E15" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="18" thickBot="1">
-      <c r="A16" s="33" t="s">
+      <c r="K15" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="18" thickBot="1">
+      <c r="A16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>283</v>
-      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="15" t="s">
+      <c r="K16" s="11" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="18" thickBot="1">
-      <c r="A17" s="34" t="s">
+      <c r="M16" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18" thickBot="1">
+      <c r="A17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="I17" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="G17" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="M17" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="15"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="24" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>286</v>
-      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="16" t="s">
+      <c r="K18" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2"/>
@@ -3024,30 +3258,32 @@
         <v>13</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M19" s="15"/>
-      <c r="Q19" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="16" t="s">
+      <c r="E19" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="M19" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2"/>
@@ -3055,26 +3291,26 @@
         <v>25</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="15"/>
-      <c r="Q20" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="15"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="16" t="s">
+      <c r="E20" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="11"/>
+      <c r="M20" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="2"/>
@@ -3082,964 +3318,1215 @@
         <v>12</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
+      <c r="E21" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="Q21" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="15"/>
-    </row>
-    <row r="22" spans="1:21" ht="18" thickBot="1">
-      <c r="A22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" s="16" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="K21" s="11"/>
+      <c r="M21" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" ht="18" thickBot="1">
+      <c r="A22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="15"/>
-      <c r="Q22" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="15"/>
-    </row>
-    <row r="23" spans="1:21" ht="18" thickBot="1">
-      <c r="A23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35" t="s">
+      <c r="K22" s="11"/>
+      <c r="M22" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" ht="18" thickBot="1">
+      <c r="A23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="I23" s="16" t="s">
-        <v>292</v>
-      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="G23" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="15"/>
-    </row>
-    <row r="24" spans="1:21" ht="18" thickBot="1">
-      <c r="A24" s="37" t="s">
+      <c r="K23" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>293</v>
-      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="21"/>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="17" t="s">
-        <v>34</v>
+      <c r="K24" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18" thickBot="1">
+      <c r="A25" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="E25" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="17" t="s">
-        <v>35</v>
+      <c r="I25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
+    </row>
+    <row r="26" spans="1:17" ht="18" thickBot="1">
+      <c r="A26" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="M26" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
+    </row>
+    <row r="27" spans="1:17" ht="18" thickBot="1">
+      <c r="A27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="18" thickBot="1">
-      <c r="A27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>298</v>
-      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="18" thickBot="1">
-      <c r="A28" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35" t="s">
+      <c r="K27" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18" thickBot="1">
+      <c r="A28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="I28" s="16" t="s">
-        <v>299</v>
-      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="G28" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="37" t="s">
+      <c r="K28" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>300</v>
-      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="17" t="s">
-        <v>42</v>
+      <c r="K29" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="J30" s="2" t="s">
+      <c r="E30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="18" thickBot="1">
+      <c r="A32" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="18" thickBot="1">
+      <c r="A33" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="G33" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="18" thickBot="1">
+      <c r="A34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
+      <c r="M34" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="18" thickBot="1">
+      <c r="A35" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="18" thickBot="1">
+      <c r="A36" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="G36" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="18" thickBot="1">
+      <c r="A40" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="11"/>
+    </row>
+    <row r="41" spans="1:17" ht="18" thickBot="1">
+      <c r="A41" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="G41" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="18" thickBot="1">
-      <c r="A32" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="18" thickBot="1">
-      <c r="A33" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="I33" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="1:14" ht="18" thickBot="1">
-      <c r="A35" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="18" thickBot="1">
-      <c r="A36" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="36"/>
-      <c r="I36" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" ht="18" thickBot="1">
-      <c r="A40" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" ht="18" thickBot="1">
-      <c r="A41" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="I41" s="16" t="s">
-        <v>257</v>
+      <c r="H41" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K41" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="11"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="35.4" thickBot="1">
+      <c r="A45" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="M41" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" ht="18" thickBot="1">
-      <c r="A45" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="2"/>
+      <c r="K45" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q45" s="11"/>
+    </row>
+    <row r="46" spans="1:17" ht="35.4" thickBot="1">
+      <c r="A46" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="G46" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="15" t="s">
+      <c r="I46" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" ht="18" thickBot="1">
-      <c r="A46" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="36"/>
-      <c r="I46" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>266</v>
-      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="61" t="s">
+        <v>386</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" ht="18" thickBot="1">
-      <c r="A48" s="17" t="s">
-        <v>62</v>
+      <c r="K47" s="11"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="18" thickBot="1">
+      <c r="A48" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="I48" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="17" t="s">
-        <v>63</v>
+      <c r="E48" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="18" thickBot="1">
+      <c r="A49" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="17" t="s">
-        <v>64</v>
+      <c r="E49" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="17"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="17" t="s">
-        <v>65</v>
+      <c r="E50" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="17" t="s">
-        <v>66</v>
+      <c r="E51" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="17" t="s">
-        <v>67</v>
+      <c r="E52" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="18" thickBot="1">
-      <c r="A54" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="23" t="s">
+      <c r="E53" s="19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="18" thickBot="1">
-      <c r="A55" s="41" t="s">
+    <row r="54" spans="1:17" ht="18" thickBot="1">
+      <c r="A54" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35" t="s">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="18" thickBot="1">
+      <c r="A55" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="36"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="37" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="22" t="s">
+      <c r="E55" s="33"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="17" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="E56" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="17" t="s">
+      <c r="E57" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18" thickBot="1">
+      <c r="A68" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18" thickBot="1">
+      <c r="A69" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="33"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18" thickBot="1">
-      <c r="A68" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18" thickBot="1">
-      <c r="A69" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="36"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="23" t="s">
-        <v>200</v>
+      <c r="E71" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="2"/>
@@ -4047,867 +4534,867 @@
         <v>13</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="23" t="s">
-        <v>201</v>
+      <c r="E72" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="17" t="s">
-        <v>88</v>
+      <c r="A73" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="23" t="s">
-        <v>202</v>
+      <c r="E73" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="23" t="s">
-        <v>203</v>
+      <c r="E74" s="19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18" thickBot="1">
-      <c r="A75" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="23" t="s">
-        <v>204</v>
+      <c r="A75" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="18" thickBot="1">
-      <c r="A76" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35" t="s">
+      <c r="A76" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="36"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="33"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="23" t="s">
-        <v>205</v>
+      <c r="A77" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="17" t="s">
-        <v>73</v>
+      <c r="A78" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="23" t="s">
-        <v>206</v>
+      <c r="E78" s="19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="18" thickBot="1">
+      <c r="A82" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="25"/>
+      <c r="C82" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="18" thickBot="1">
+      <c r="A83" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="33"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="23" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="18" thickBot="1">
-      <c r="A82" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="18" thickBot="1">
-      <c r="A83" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E83" s="36"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2"/>
-      <c r="E85" s="23" t="s">
-        <v>212</v>
+      <c r="E85" s="19" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="18" thickBot="1">
-      <c r="A86" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="44" t="s">
-        <v>213</v>
+      <c r="A86" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="41" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="18" thickBot="1">
-      <c r="A87" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B87" s="46"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47" t="s">
+      <c r="A87" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E87" s="48"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="E87" s="45"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>214</v>
+      <c r="A88" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="9" t="s">
-        <v>308</v>
+      <c r="A89" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="23" t="s">
-        <v>320</v>
+      <c r="E89" s="19" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="9" t="s">
-        <v>309</v>
+      <c r="A90" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D90" s="2"/>
-      <c r="E90" s="23" t="s">
-        <v>321</v>
+      <c r="E90" s="19" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="9" t="s">
-        <v>310</v>
+      <c r="A91" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="23" t="s">
-        <v>322</v>
+      <c r="E91" s="19" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="9" t="s">
-        <v>311</v>
+      <c r="A92" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="23" t="s">
-        <v>323</v>
+      <c r="E92" s="19" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="9" t="s">
-        <v>312</v>
+      <c r="A93" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="23" t="s">
-        <v>324</v>
+      <c r="E93" s="19" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="18" thickBot="1">
-      <c r="A94" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D94" s="29"/>
-      <c r="E94" s="23" t="s">
-        <v>325</v>
+      <c r="A94" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="25"/>
+      <c r="E94" s="19" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="18" thickBot="1">
-      <c r="A95" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35" t="s">
+      <c r="A95" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="E95" s="36"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E95" s="33"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="23" t="s">
-        <v>326</v>
+      <c r="A96" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="19" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="3" t="s">
-        <v>317</v>
+      <c r="A97" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="23" t="s">
-        <v>327</v>
+      <c r="E97" s="19" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="3" t="s">
-        <v>318</v>
+      <c r="A98" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="23" t="s">
-        <v>328</v>
+      <c r="E98" s="19" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18" thickBot="1">
-      <c r="A99" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19" t="s">
+      <c r="A99" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="23" t="s">
-        <v>329</v>
+      <c r="D99" s="25"/>
+      <c r="E99" s="41" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18" thickBot="1">
-      <c r="A100" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35" t="s">
+      <c r="A100" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="33"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="18"/>
+      <c r="C101" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="18"/>
+      <c r="E101" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="34.799999999999997">
+      <c r="A104" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="18" thickBot="1">
+      <c r="A112" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="25"/>
+      <c r="C112" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="25"/>
+      <c r="E112" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="18" thickBot="1">
+      <c r="A113" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E113" s="33"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="18" thickBot="1">
+      <c r="A122" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="25"/>
+      <c r="C122" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="25"/>
+      <c r="E122" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="18" thickBot="1">
+      <c r="A123" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E123" s="33"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="18" thickBot="1">
+      <c r="A131" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="D100" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" s="36"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="39" t="s">
+      <c r="B131" s="25"/>
+      <c r="C131" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="25"/>
+      <c r="E131" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18" thickBot="1">
+      <c r="A132" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E132" s="33"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="18"/>
+      <c r="C133" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="9" t="s">
+      <c r="D133" s="18"/>
+      <c r="E133" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="34.799999999999997">
-      <c r="A104" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="18" thickBot="1">
-      <c r="A112" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" s="29"/>
-      <c r="C112" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="29"/>
-      <c r="E112" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="18" thickBot="1">
-      <c r="A113" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="35"/>
-      <c r="C113" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D113" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E113" s="36"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="22"/>
-      <c r="E114" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="18" thickBot="1">
-      <c r="A122" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="29"/>
-      <c r="C122" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="18" thickBot="1">
-      <c r="A123" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D123" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E123" s="36"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B124" s="22"/>
-      <c r="C124" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="22"/>
-      <c r="E124" s="23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="18" thickBot="1">
-      <c r="A131" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="29"/>
-      <c r="C131" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="29"/>
-      <c r="E131" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="18" thickBot="1">
-      <c r="A132" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E132" s="36"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B133" s="22"/>
-      <c r="C133" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="22"/>
-      <c r="E133" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D134" s="2"/>
-      <c r="E134" s="23" t="s">
-        <v>245</v>
+      <c r="E134" s="19" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="17" t="s">
-        <v>139</v>
+      <c r="A135" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="23" t="s">
-        <v>246</v>
+      <c r="E135" s="19" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="17" t="s">
-        <v>140</v>
+      <c r="A136" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="18" thickBot="1">
+      <c r="A138" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="18" thickBot="1">
-      <c r="A138" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="27" t="s">
-        <v>249</v>
+      <c r="B138" s="15"/>
+      <c r="C138" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" s="15"/>
+      <c r="E138" s="23" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:E3"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="Q2:U3"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="M2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/8_데이터분할보고서/수집데이터분할목록.xlsx
+++ b/docs/8_데이터분할보고서/수집데이터분할목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OnAD_project\docs\8_데이터분할보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5651B8-FB39-48E8-9F0C-E1E276198CA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63214C5A-DF6E-41B1-BF2D-8D03E5DC4BA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{9754A107-B31A-4CC5-B64E-F460AB7A9DDA}"/>
   </bookViews>
@@ -2269,6 +2269,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2284,9 +2302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2304,21 +2319,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2645,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81581BC9-EACE-40A1-B7E5-B86D8BF3505A}">
   <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="M31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2678,41 +2678,41 @@
       <c r="A2" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="G2" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="M2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="M2" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="60"/>
     </row>
     <row r="3" spans="1:25" ht="18" thickBot="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:25" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
@@ -2733,31 +2733,31 @@
       <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="48" t="s">
         <v>396</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="48" t="s">
         <v>396</v>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
       <c r="K5" s="33"/>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="50" t="s">
         <v>353</v>
       </c>
       <c r="N5" s="32"/>
@@ -3493,7 +3493,7 @@
       <c r="K26" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="M26" s="62" t="s">
+      <c r="M26" s="50" t="s">
         <v>379</v>
       </c>
       <c r="N26" s="32"/>
@@ -3732,7 +3732,7 @@
       <c r="E34" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="51" t="s">
         <v>352</v>
       </c>
       <c r="H34" s="32"/>
@@ -4146,7 +4146,7 @@
         <v>349</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="61" t="s">
+      <c r="M46" s="49" t="s">
         <v>386</v>
       </c>
       <c r="N46" s="2"/>

--- a/docs/8_데이터분할보고서/수집데이터분할목록.xlsx
+++ b/docs/8_데이터분할보고서/수집데이터분할목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\OnAD_project\docs\8_데이터분할보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63214C5A-DF6E-41B1-BF2D-8D03E5DC4BA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5651B8-FB39-48E8-9F0C-E1E276198CA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{9754A107-B31A-4CC5-B64E-F460AB7A9DDA}"/>
   </bookViews>
@@ -2269,6 +2269,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2283,42 +2319,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2645,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81581BC9-EACE-40A1-B7E5-B86D8BF3505A}">
   <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2678,41 +2678,41 @@
       <c r="A2" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
       <c r="G2" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="M2" s="58" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="M2" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="1:25" ht="18" thickBot="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:25" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
@@ -2733,31 +2733,31 @@
       <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="60" t="s">
         <v>396</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="P4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="60" t="s">
         <v>396</v>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
       <c r="K5" s="33"/>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="62" t="s">
         <v>353</v>
       </c>
       <c r="N5" s="32"/>
@@ -3493,7 +3493,7 @@
       <c r="K26" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="M26" s="50" t="s">
+      <c r="M26" s="62" t="s">
         <v>379</v>
       </c>
       <c r="N26" s="32"/>
@@ -3732,7 +3732,7 @@
       <c r="E34" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="63" t="s">
         <v>352</v>
       </c>
       <c r="H34" s="32"/>
@@ -4146,7 +4146,7 @@
         <v>349</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="49" t="s">
+      <c r="M46" s="61" t="s">
         <v>386</v>
       </c>
       <c r="N46" s="2"/>
